--- a/RobotSrc/unit_test/网页测试.xlsx
+++ b/RobotSrc/unit_test/网页测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>使用模式1扫地</t>
   </si>
@@ -74,63 +74,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按forwords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按backwords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按turn left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按turn right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按move left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按move right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按begin mapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按save your map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功保存</t>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常，ou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择label2取物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常清扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复清扫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -493,21 +461,33 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -529,108 +509,47 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>

--- a/RobotSrc/unit_test/网页测试.xlsx
+++ b/RobotSrc/unit_test/网页测试.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E644F27-AB01-4BD0-BB51-5995476153E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>使用模式1扫地</t>
   </si>
@@ -99,13 +100,57 @@
   </si>
   <si>
     <t>反复清扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不登录进入操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否正常登出？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否查看个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否修改username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,6 +199,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -201,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +282,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,20 +526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -473,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -489,7 +571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -497,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -505,7 +587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -513,7 +595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -521,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -529,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -537,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -545,12 +627,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -561,12 +691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,12 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
